--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2023UnityFile\ARPG_2023\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148C62DE-BFAB-4901-8642-BD56CE910D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE09AA-8AE3-4BBA-BE53-6BD719AE6CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>characterInfoData.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCharAI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharAI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charactersAI.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -739,6 +751,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\WGame\Client\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE09AA-8AE3-4BBA-BE53-6BD719AE6CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEA9102-CE2B-4BB1-B617-40CBDE4B06C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -193,6 +193,18 @@
   </si>
   <si>
     <t>charactersAI.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbCharAnim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharAnim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>charactersAnimation.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -765,6 +777,20 @@
         <v>51</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
